--- a/src/main/resources/flats.xlsx
+++ b/src/main/resources/flats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Object</t>
   </si>
   <si>
-    <t>Style</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Price</t>
@@ -44,26 +44,34 @@
     <t>Agency %</t>
   </si>
   <si>
-    <t>Must be integer, cannot be 
-repeated in the same object</t>
-  </si>
-  <si>
-    <t>Must be integer</t>
-  </si>
-  <si>
-    <t>Must be double</t>
-  </si>
-  <si>
-    <t>Must be already created, must 
-be in format "House(Section)"</t>
-  </si>
-  <si>
-    <t>Must be "ACTIVE" or "BOOKING" or 
-"NOTACTIVE" or "REMOVEDFROMSALE"
- or "RESERVE"</t>
-  </si>
-  <si>
-    <t>Must be integer, the sum should be 100</t>
+    <t>A/C "Future"(1 Section)</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>A/C "Quiet"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Family"(1 Section)</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>A/C "Future"(3 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Central"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Happy"(1 Section)</t>
+  </si>
+  <si>
+    <t>NOTACTIVE</t>
   </si>
 </sst>
 </file>
@@ -71,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -83,12 +91,8 @@
       <name val="Arial"/>
       <sz val="15.0"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="9.0"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,16 +107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor indexed="43"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -140,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -191,38 +185,934 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="2">
+      <c r="A2" t="n" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D2" t="n" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="G2" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H2" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="G3" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H3" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I3" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n" s="2">
+        <v>42000.0</v>
+      </c>
+      <c r="H4" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H5" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I5" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H6" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n" s="2">
+        <v>49000.0</v>
+      </c>
+      <c r="H7" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I7" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n" s="2">
+        <v>48000.0</v>
+      </c>
+      <c r="H8" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="B9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>3456.0</v>
+      </c>
+      <c r="D9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="H9" t="n" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="I9" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B10" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D10" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n" s="2">
+        <v>110000.0</v>
+      </c>
+      <c r="H10" t="n" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="I10" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="2">
+        <v>7457.0</v>
+      </c>
+      <c r="B11" t="n" s="2">
+        <v>4563.0</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>2346.0</v>
+      </c>
+      <c r="D11" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H11" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I11" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B12" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n" s="2">
+        <v>41000.0</v>
+      </c>
+      <c r="H12" t="n" s="2">
+        <v>41000.0</v>
+      </c>
+      <c r="I12" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B13" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="H13" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="I13" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="H14" t="n" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="I14" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H15" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I15" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B16" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D16" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="H16" t="n" s="2">
+        <v>90000.0</v>
+      </c>
+      <c r="I16" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J16" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B17" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D17" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H17" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="I17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G18" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H18" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I18" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B19" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D19" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n" s="2">
+        <v>400000.0</v>
+      </c>
+      <c r="H19" t="n" s="2">
+        <v>390000.0</v>
+      </c>
+      <c r="I19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="2">
+        <v>523.0</v>
+      </c>
+      <c r="B20" t="n" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="D20" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H20" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="2">
+        <v>345678.0</v>
+      </c>
+      <c r="B21" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="D21" t="n" s="2">
+        <v>3634.0</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n" s="2">
+        <v>1660738.0</v>
+      </c>
+      <c r="H21" t="n" s="2">
+        <v>1253730.0</v>
+      </c>
+      <c r="I21" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J21" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="B22" t="n" s="2">
+        <v>3457.0</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>3457.0</v>
+      </c>
+      <c r="D22" t="n" s="2">
+        <v>5345.0</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n" s="2">
+        <v>5000000.0</v>
+      </c>
+      <c r="H22" t="n" s="2">
+        <v>4000000.0</v>
+      </c>
+      <c r="I22" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J22" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="2">
+        <v>2345.0</v>
+      </c>
+      <c r="B23" t="n" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="D23" t="n" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G23" t="n" s="2">
+        <v>5000000.0</v>
+      </c>
+      <c r="H23" t="n" s="2">
+        <v>4000000.0</v>
+      </c>
+      <c r="I23" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J23" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="2">
+        <v>543.0</v>
+      </c>
+      <c r="B24" t="n" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="D24" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="n" s="2">
+        <v>1500000.0</v>
+      </c>
+      <c r="H24" t="n" s="2">
+        <v>1450000.0</v>
+      </c>
+      <c r="I24" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="J24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="2">
+        <v>324.0</v>
+      </c>
+      <c r="B25" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="C25" t="n" s="2">
+        <v>347.0</v>
+      </c>
+      <c r="D25" t="n" s="2">
+        <v>2634.0</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G25" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="H25" t="n" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="I25" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="J25" t="n" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="2">
+        <v>236.0</v>
+      </c>
+      <c r="B26" t="n" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="C26" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="D26" t="n" s="2">
+        <v>235.53</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="H26" t="n" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="I26" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="J26" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="B27" t="n" s="2">
+        <v>3245.0</v>
+      </c>
+      <c r="C27" t="n" s="2">
+        <v>2354.0</v>
+      </c>
+      <c r="D27" t="n" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="n" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="H27" t="n" s="2">
+        <v>190000.0</v>
+      </c>
+      <c r="I27" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J27" t="n" s="2">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="2">
+        <v>457.0</v>
+      </c>
+      <c r="B28" t="n" s="2">
+        <v>457.0</v>
+      </c>
+      <c r="C28" t="n" s="2">
+        <v>475.0</v>
+      </c>
+      <c r="D28" t="n" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="n" s="2">
+        <v>585744.0</v>
+      </c>
+      <c r="H28" t="n" s="2">
+        <v>485.0</v>
+      </c>
+      <c r="I28" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J28" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="2">
+        <v>3462346.0</v>
+      </c>
+      <c r="B29" t="n" s="2">
+        <v>2346.0</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>3245.0</v>
+      </c>
+      <c r="D29" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="F29" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H29" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I29" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J29" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="B30" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="C30" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="D30" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>15</v>
+      <c r="F30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J30" t="n" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/flats.xlsx
+++ b/src/main/resources/flats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -44,26 +44,34 @@
     <t>Agency %</t>
   </si>
   <si>
-    <t>Must be integer, cannot be 
-repeated in the same object</t>
-  </si>
-  <si>
-    <t>Must be integer</t>
-  </si>
-  <si>
-    <t>Must be double</t>
-  </si>
-  <si>
-    <t>Must be already created, must 
-be in format "House(Section)"</t>
-  </si>
-  <si>
-    <t>Must be "ACTIVE" or "BOOKING" or 
-"NOTACTIVE" or "REMOVEDFROMSALE"
- or "RESERVE"</t>
-  </si>
-  <si>
-    <t>Must be integer, the sum should be 100</t>
+    <t>A/C "Future"(1 Section)</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>A/C "Quiet"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Family"(1 Section)</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>A/C "Future"(3 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Central"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Happy"(1 Section)</t>
+  </si>
+  <si>
+    <t>NOTACTIVE</t>
   </si>
 </sst>
 </file>
@@ -71,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -83,12 +91,8 @@
       <name val="Arial"/>
       <sz val="15.0"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="9.0"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,16 +107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor indexed="43"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -140,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -191,38 +185,1030 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="2">
+      <c r="A2" t="n" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D2" t="n" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H2" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H3" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I3" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n" s="2">
+        <v>42000.0</v>
+      </c>
+      <c r="H4" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H5" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I5" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H6" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n" s="2">
+        <v>49000.0</v>
+      </c>
+      <c r="H7" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I7" t="n" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n" s="2">
+        <v>48000.0</v>
+      </c>
+      <c r="H8" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="B9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>3456.0</v>
+      </c>
+      <c r="D9" t="n" s="2">
+        <v>456.0</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="H9" t="n" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="I9" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B10" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D10" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n" s="2">
+        <v>110000.0</v>
+      </c>
+      <c r="H10" t="n" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="I10" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="2">
+        <v>7457.0</v>
+      </c>
+      <c r="B11" t="n" s="2">
+        <v>4563.0</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>2346.0</v>
+      </c>
+      <c r="D11" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="F11" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H11" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I11" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B12" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n" s="2">
+        <v>41000.0</v>
+      </c>
+      <c r="H12" t="n" s="2">
+        <v>41000.0</v>
+      </c>
+      <c r="I12" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B13" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="H13" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="I13" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="H14" t="n" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="I14" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J14" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H15" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I15" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B16" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D16" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="H16" t="n" s="2">
+        <v>90000.0</v>
+      </c>
+      <c r="I16" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J16" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B17" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D17" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="n" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H17" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="I17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G18" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H18" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I18" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B19" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D19" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="H19" t="n" s="2">
+        <v>39000.0</v>
+      </c>
+      <c r="I19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="2">
+        <v>523.0</v>
+      </c>
+      <c r="B20" t="n" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="D20" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H20" t="n" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="I20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="2">
+        <v>345678.0</v>
+      </c>
+      <c r="B21" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="D21" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n" s="2">
+        <v>46000.0</v>
+      </c>
+      <c r="H21" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I21" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J21" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="B22" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D22" t="n" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>15</v>
+      <c r="F22" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H22" t="n" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="I22" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J22" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="2">
+        <v>2345.0</v>
+      </c>
+      <c r="B23" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D23" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G23" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H23" t="n" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="I23" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J23" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="2">
+        <v>543.0</v>
+      </c>
+      <c r="B24" t="n" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="D24" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="n" s="2">
+        <v>65000.0</v>
+      </c>
+      <c r="H24" t="n" s="2">
+        <v>62500.0</v>
+      </c>
+      <c r="I24" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="J24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="2">
+        <v>324.0</v>
+      </c>
+      <c r="B25" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C25" t="n" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D25" t="n" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G25" t="n" s="2">
+        <v>47000.0</v>
+      </c>
+      <c r="H25" t="n" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="I25" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="J25" t="n" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="2">
+        <v>236.0</v>
+      </c>
+      <c r="B26" t="n" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="C26" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="D26" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n" s="2">
+        <v>25000.0</v>
+      </c>
+      <c r="H26" t="n" s="2">
+        <v>24000.0</v>
+      </c>
+      <c r="I26" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="J26" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="B27" t="n" s="2">
+        <v>3245.0</v>
+      </c>
+      <c r="C27" t="n" s="2">
+        <v>2354.0</v>
+      </c>
+      <c r="D27" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="H27" t="n" s="2">
+        <v>19000.0</v>
+      </c>
+      <c r="I27" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J27" t="n" s="2">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="2">
+        <v>457.0</v>
+      </c>
+      <c r="B28" t="n" s="2">
+        <v>457.0</v>
+      </c>
+      <c r="C28" t="n" s="2">
+        <v>475.0</v>
+      </c>
+      <c r="D28" t="n" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H28" t="n" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="I28" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J28" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="2">
+        <v>3462346.0</v>
+      </c>
+      <c r="B29" t="n" s="2">
+        <v>2346.0</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>3245.0</v>
+      </c>
+      <c r="D29" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H29" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I29" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J29" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="B30" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C30" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D30" t="n" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G30" t="n" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="H30" t="n" s="2">
+        <v>68000.0</v>
+      </c>
+      <c r="I30" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J30" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="2">
+        <v>3466.0</v>
+      </c>
+      <c r="B31" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="C31" t="n" s="2">
+        <v>346.0</v>
+      </c>
+      <c r="D31" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H31" t="n" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="I31" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J31" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B32" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D32" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G32" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H32" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I32" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J32" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B33" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C33" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D33" t="n" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H33" t="n" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="I33" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J33" t="n" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>